--- a/medicine/Autisme/Auto-stimulation/Auto-stimulation.xlsx
+++ b/medicine/Autisme/Auto-stimulation/Auto-stimulation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les comportements d’auto-stimulation sont des mouvements répétitifs et stéréotypés. Ils sont souvent observés chez les enfants ayant des troubles de développement, et plus fréquemment chez les enfants et les adultes autistes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les comportements d’auto-stimulation sont des mouvements répétitifs et stéréotypés. Ils sont souvent observés chez les enfants ayant des troubles de développement, et plus fréquemment chez les enfants et les adultes autistes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ces comportements peuvent prendre plusieurs formes[1],[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ces comportements peuvent prendre plusieurs formes, : 
 autostimulation visuelle : fixer les lumières, aligner des objets, refaire un casse-tête à répétition ;
 autostimulation vestibulaire : balancement du corps, hochements de la tête, sauts de haut en bas, tourner sur soi-même ;
 autostimulation tactile : tapoter des objets, frotter des surfaces ;
@@ -547,9 +561,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La raison de ces comportements varie d’une personne à une autre[1]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La raison de ces comportements varie d’une personne à une autre: 
 se fournir une stimulation sensorielle : chez les personnes ayant un profil sensoriel de type hyposensible ;
 se détendre en bloquant les sur-stimulations environnementales : chez les personnes ayant un profil sensoriel de type hypersensible.</t>
         </is>
@@ -579,10 +595,12 @@
           <t>Impacts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon certains auteurs, ces comportements d’auto-stimulation affectent les niveaux de concentration et d’attention ainsi que les capacités d’interaction et de communication de l’enfant, et en conséquence impactent sur le niveau de participation dans des occupations significatives de même que sur les capacités de socialisation, d’apprentissage et d’acquisition de nouvelles habiletés[3]. Il existe des débats par rapport à la question de la limitation ou de l’élimination de ces comportements. Les parents et thérapeutes essayent généralement de faire cesser ceux qui sont dangereux, et de limiter l’auto-stimulation non dangereuse dans les lieux publics. La recherche d’une extinction totale de ces comportements d’auto-stimulation amène généralement à une modification (changement de geste d’auto-stimulation) et non à leur disparition.
-Le thérapeute doit identifier ces comportements et intervenir pour les diminuer au début du processus d’intervention. Les interventions peuvent comprendre une diète sensorielle qui devra répondre aux besoins sensoriels de l’enfant et le remplacement des comportements d’autostimulation par des comportements plus socialement acceptables et qui affectent moins le fonctionnement de l’enfant au quotidien (exemple : mâchonner un Chewy tube)[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon certains auteurs, ces comportements d’auto-stimulation affectent les niveaux de concentration et d’attention ainsi que les capacités d’interaction et de communication de l’enfant, et en conséquence impactent sur le niveau de participation dans des occupations significatives de même que sur les capacités de socialisation, d’apprentissage et d’acquisition de nouvelles habiletés. Il existe des débats par rapport à la question de la limitation ou de l’élimination de ces comportements. Les parents et thérapeutes essayent généralement de faire cesser ceux qui sont dangereux, et de limiter l’auto-stimulation non dangereuse dans les lieux publics. La recherche d’une extinction totale de ces comportements d’auto-stimulation amène généralement à une modification (changement de geste d’auto-stimulation) et non à leur disparition.
+Le thérapeute doit identifier ces comportements et intervenir pour les diminuer au début du processus d’intervention. Les interventions peuvent comprendre une diète sensorielle qui devra répondre aux besoins sensoriels de l’enfant et le remplacement des comportements d’autostimulation par des comportements plus socialement acceptables et qui affectent moins le fonctionnement de l’enfant au quotidien (exemple : mâchonner un Chewy tube),.
 </t>
         </is>
       </c>
